--- a/Assets/Resources/Configs/Excel/GoodsConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/GoodsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="7860"/>
+    <workbookView windowWidth="19080" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Goods" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
-  <si>
-    <t>道具类型</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>道具id</t>
   </si>
@@ -25,19 +22,13 @@
     <t>道具名</t>
   </si>
   <si>
-    <t>实际的Id</t>
-  </si>
-  <si>
-    <t>实际类型</t>
-  </si>
-  <si>
     <t>图标</t>
   </si>
   <si>
     <t>图片</t>
   </si>
   <si>
-    <t>#GoodTypeInfo</t>
+    <t>简介</t>
   </si>
   <si>
     <t>#GoodInfo</t>
@@ -46,49 +37,25 @@
     <t>name</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
     <t>image</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>木质狼牙棒</t>
-  </si>
-  <si>
-    <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.BarbedClub</t>
-  </si>
-  <si>
-    <t>普通短剑</t>
-  </si>
-  <si>
-    <t>FantasyHeroes.Basic.MeleeWeapon1H.AssassinDagger [Paint]</t>
-  </si>
-  <si>
-    <t>普通铁剑</t>
-  </si>
-  <si>
-    <t>FantasyHeroes.Knights.MeleeWeapon1H.BalancedSword [Paint]</t>
-  </si>
-  <si>
-    <t>普通配剑</t>
-  </si>
-  <si>
-    <t>FantasyHeroes.Basic.MeleeWeapon1H.Bilbo</t>
-  </si>
-  <si>
     <t>果子</t>
+  </si>
+  <si>
+    <t>果子简介</t>
   </si>
 </sst>
 </file>
@@ -493,20 +460,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="59.375" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,142 +487,50 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/GoodsConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/GoodsConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>道具id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>简介</t>
   </si>
   <si>
+    <t>是否是消耗品</t>
+  </si>
+  <si>
     <t>#GoodInfo</t>
   </si>
   <si>
@@ -46,16 +49,52 @@
     <t>desc</t>
   </si>
   <si>
+    <t>isUse</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>果子</t>
-  </si>
-  <si>
-    <t>果子简介</t>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>大生命药水</t>
+  </si>
+  <si>
+    <t>g_1</t>
+  </si>
+  <si>
+    <t>瓶身萦绕着温暖的赤色光晕，内里是由晨露与珍稀绯红浆果淬炼而成的药液。轻轻饮下，能迅速修复受损的躯体，瞬间为使用者恢复50生命值，是冒险途中遭遇危险时，守护生命、逆转危局的关键保障</t>
+  </si>
+  <si>
+    <t>生命药水</t>
+  </si>
+  <si>
+    <t>g_4</t>
+  </si>
+  <si>
+    <t>瓶身萦绕着温暖的赤色光晕，内里是由晨露与珍稀绯红浆果淬炼而成的药液。轻轻饮下，能迅速修复受损的躯体，瞬间为使用者恢复25生命值，是冒险途中遭遇危险时，守护生命、逆转危局的关键保障</t>
+  </si>
+  <si>
+    <t>大魔力药水</t>
+  </si>
+  <si>
+    <t>g_2</t>
+  </si>
+  <si>
+    <t>瓶中盛着如夜空般深邃的湛蓝液体，仿佛蕴含着宇宙星尘的力量。当你在施法战斗中魔力告急时，饮下它，那股清冽的能量会迅速涌遍全身，瞬间补充50魔法值，让你能再次尽情释放各类法术，在魔法对决或法术驱动的冒险中持续保持强大的施法能力。</t>
+  </si>
+  <si>
+    <t>魔力药水</t>
+  </si>
+  <si>
+    <t>g_3</t>
+  </si>
+  <si>
+    <t>瓶中盛着如夜空般深邃的湛蓝液体，仿佛蕴含着宇宙星尘的力量。当你在施法战斗中魔力告急时，饮下它，那股清冽的能量会迅速涌遍全身，瞬间补充25魔法值，让你能再次尽情释放各类法术，在魔法对决或法术驱动的冒险中持续保持强大的施法能力。</t>
   </si>
 </sst>
 </file>
@@ -460,18 +499,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="196" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,50 +527,128 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/GoodsConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/GoodsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="8340"/>
+    <workbookView windowWidth="18480" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Goods" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>道具id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>道具名</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>icon</t>
   </si>
   <si>
@@ -95,6 +101,18 @@
   </si>
   <si>
     <t>瓶中盛着如夜空般深邃的湛蓝液体，仿佛蕴含着宇宙星尘的力量。当你在施法战斗中魔力告急时，饮下它，那股清冽的能量会迅速涌遍全身，瞬间补充25魔法值，让你能再次尽情释放各类法术，在魔法对决或法术驱动的冒险中持续保持强大的施法能力。</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>g_5</t>
+  </si>
+  <si>
+    <t>鸡腿</t>
+  </si>
+  <si>
+    <t>g_6</t>
   </si>
 </sst>
 </file>
@@ -499,19 +517,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="196" customWidth="1"/>
+    <col min="6" max="6" width="196" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,125 +548,186 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
